--- a/results/results_4.xlsx
+++ b/results/results_4.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikolaj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\TinyGP\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95CBB24A-3710-4C47-AEA6-3F656BBA8B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6A528A-9D95-4E3A-914C-1FBA0587EF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -118,6 +121,2721 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6174969951186005E-2"/>
+          <c:y val="3.9241448124769526E-2"/>
+          <c:w val="0.92194045207897846"/>
+          <c:h val="0.91015232511304967"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9009900990099011E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9801980198019802E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9702970297029702E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9603960396039604E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9504950495049507E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.940594059405941E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9306930693069313E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9207920792079209E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9108910891089105E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9009900990099001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1089108910891089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11881188118811879</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12871287128712869</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1386138613861386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14851485148514851</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15841584158415842</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16831683168316833</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17821782178217824</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18811881188118815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19801980198019806</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20792079207920797</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21782178217821788</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22772277227722779</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2376237623762377</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24752475247524761</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25742574257425749</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2673267326732674</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27722772277227731</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28712871287128722</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29702970297029713</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30693069306930704</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31683168316831695</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32673267326732686</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33663366336633677</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34653465346534668</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.35643564356435659</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.3663366336633665</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37623762376237641</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38613861386138632</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39603960396039622</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40594059405940613</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.41584158415841604</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42574257425742595</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43564356435643586</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44554455445544577</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45544554455445568</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46534653465346559</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4752475247524755</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48514851485148541</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49504950495049532</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50495049504950518</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.51485148514851509</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.524752475247525</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.53465346534653491</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54455445544554482</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55445544554455473</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56435643564356464</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57425742574257455</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58415841584158446</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59405940594059436</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60396039603960427</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61386138613861418</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.62376237623762409</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.633663366336634</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.64356435643564391</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.65346534653465382</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.66336633663366373</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67326732673267364</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.68316831683168355</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69306930693069346</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70297029702970337</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71287128712871328</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.72277227722772319</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.7326732673267331</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.74257425742574301</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.75247524752475292</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.76237623762376283</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.77227722772277274</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78217821782178265</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.79207920792079256</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.80198019801980247</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.81188118811881238</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.82178217821782229</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8316831683168322</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84158415841584211</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.85148514851485202</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.86138613861386193</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.87128712871287184</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.88118811881188175</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.89108910891089166</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.90099009900990157</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.91089108910891148</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.92079207920792139</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.9306930693069313</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.94059405940594121</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.95049504950495112</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.96039603960396103</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97029702970297094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$2:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>6.3465189933776855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.880718174547251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6166437923318089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.690236875326327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8614380477678658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.2676999120429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.001523631634099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.158139785917678</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4109044311070207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.969800439211401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.271926313343615</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.007865282568602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2431640979086998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.111033656809589</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3343364413421934</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.903489216719523</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.205739068512869</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.717187872027406</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.784260683720653</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0530358517524039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.722334682351292</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.975289108729598</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.4968668871586868</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4624496780999818</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.137244772202898</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.276657595492825</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.433435874410193</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.825294872321706</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.090309464105285</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.8512022754933568</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.800356118985921</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.431856306472627</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.3109704008196843</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.488348044971428</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.936632137487429</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.360124512474135</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.719993459116115</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8405335445215207</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.009122603010422</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.5530645209963962</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.084195731890084</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.059822620731769</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.375543122244354</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.039309926552349</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.077544580591788</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.030911757214234</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.7590756581561404</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.928088386460107</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.168173931612827</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.3009863749589066</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.4038038537053783</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.8764438345880796</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.2949337109480759</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0974231734134186</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.197787086562355</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.022922260926501</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1509083969758291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.7596291197408549</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.2236495537332974</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.0042271566863112</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.699499545711102</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17.745348335492729</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.0010035675350988</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19.28048349134993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.26826305200558</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.4208279977930651</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.30895431443016</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.812953014184933</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.466147385021248</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4872993478680605</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.221313325485379</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.9506604978353668</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.8331503608439235</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.5747927793181775</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.965113738975903</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.537127060465293</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.4523606158719211</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.7519592530656567</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.3504103339544624</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.6552203244502</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.9396488642928631</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.0242173081577421</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.5545007025841446</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18.5599051182813</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.7957468127260121</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.9505500321341041</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17.527233973588093</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>11.240400153811615</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8909001562855039</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.9935118797982092</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.5795208487180208</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18.302639574107559</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.9983568522009527</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13.880992388961339</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13.999994674531541</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20.630203586993833</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.2566571684166945</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.9187986732709525</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.8035580427339768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8F4-41F9-8DB9-FB978A3F99AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9009900990099011E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9801980198019802E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9702970297029702E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9603960396039604E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9504950495049507E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.940594059405941E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9306930693069313E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9207920792079209E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9108910891089105E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9009900990099001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1089108910891089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11881188118811879</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12871287128712869</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1386138613861386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14851485148514851</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15841584158415842</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16831683168316833</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17821782178217824</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18811881188118815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19801980198019806</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20792079207920797</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21782178217821788</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22772277227722779</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2376237623762377</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24752475247524761</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25742574257425749</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2673267326732674</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27722772277227731</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28712871287128722</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29702970297029713</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30693069306930704</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31683168316831695</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32673267326732686</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33663366336633677</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34653465346534668</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.35643564356435659</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.3663366336633665</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37623762376237641</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38613861386138632</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39603960396039622</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40594059405940613</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.41584158415841604</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42574257425742595</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43564356435643586</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44554455445544577</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45544554455445568</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46534653465346559</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4752475247524755</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48514851485148541</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49504950495049532</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50495049504950518</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.51485148514851509</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.524752475247525</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.53465346534653491</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54455445544554482</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55445544554455473</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56435643564356464</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57425742574257455</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58415841584158446</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59405940594059436</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60396039603960427</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61386138613861418</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.62376237623762409</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.633663366336634</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.64356435643564391</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.65346534653465382</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.66336633663366373</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67326732673267364</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.68316831683168355</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69306930693069346</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70297029702970337</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71287128712871328</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.72277227722772319</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.7326732673267331</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.74257425742574301</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.75247524752475292</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.76237623762376283</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.77227722772277274</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78217821782178265</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.79207920792079256</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.80198019801980247</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.81188118811881238</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.82178217821782229</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8316831683168322</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84158415841584211</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.85148514851485202</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.86138613861386193</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.87128712871287184</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.88118811881188175</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.89108910891089166</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.90099009900990157</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.91089108910891148</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.92079207920792139</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.9306930693069313</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.94059405940594121</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.95049504950495112</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.96039603960396103</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97029702970297094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$D$2:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>9.3712312222002581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.522754809481292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.703894409732358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.364478551789666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6144271781397652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.563732812168929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.532895543874908</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.689272677386732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2895773126898327</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.796700581361293</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.778893581349699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.75031086306236</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8051571507634891</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.641601512268579</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1446487800460652</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.267572552969593</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.908450570835505</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.916185659224718</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.30639898538648</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5286367957387035</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.35099935921739</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.412493286746525</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.496879684169192</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.2520770345721086</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.224179081246998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.164654090765984</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.848046326181461</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.321013575998698</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.592927757283483</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.800678772852473</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.196918118379912</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.464321184281509</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.9956448420843884</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.832703594981737</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.365811830234428</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.213942806638892</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.652813291161083</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.1780409678359476</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.466719373176645</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.982245118929157</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.06464340630637</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.028112174254776</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.222360942408553</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20.314419003219115</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.278763301182877</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.284361724725954</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0620967326606063</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.285371421150685</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20.399004271143696</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.00316779298368</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.102203323710381</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.3319949735460899</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.5699257357173604</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.2171444871610886</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.169683610343682</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14.84103941355538</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2424929275541614</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.0124586810397771</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.825760729314771</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.4496246094369418</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.509407776742487</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20.876999366926391</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.546240237074139</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22.492125244622642</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15.007559989139686</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.962053257965373</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.293246091307005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.55646159746372</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.110408673650603</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.4638477068122278</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>22.35518725192594</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.397604606200254</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.866671057317399</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.7124568154433755</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.9203635888026032</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.243902152614545</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11.879579216534887</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.188354985485415</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.6180983490599559</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.064139241609151</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11.290890594522004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.172909432237681</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.7934170570080603</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21.513032522600959</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11.095299741371724</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.183889261097317</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20.380695454768357</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.6692873632794</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.825230907321437</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12.319178858123397</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.4722395806145911</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>21.154400500842428</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.8975521042504262</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16.420458423517179</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16.536744616175142</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.59303482052249</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.0647954839084699</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>12.155121210702395</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.4948960521478236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B8F4-41F9-8DB9-FB978A3F99AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9009900990099011E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9801980198019802E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9702970297029702E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9603960396039604E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9504950495049507E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.940594059405941E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9306930693069313E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9207920792079209E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9108910891089105E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9009900990099001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1089108910891089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11881188118811879</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12871287128712869</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1386138613861386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14851485148514851</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15841584158415842</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16831683168316833</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17821782178217824</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18811881188118815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19801980198019806</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20792079207920797</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21782178217821788</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22772277227722779</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2376237623762377</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24752475247524761</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25742574257425749</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2673267326732674</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27722772277227731</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28712871287128722</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29702970297029713</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30693069306930704</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31683168316831695</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32673267326732686</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33663366336633677</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34653465346534668</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.35643564356435659</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.3663366336633665</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37623762376237641</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38613861386138632</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39603960396039622</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40594059405940613</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.41584158415841604</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42574257425742595</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43564356435643586</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44554455445544577</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45544554455445568</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46534653465346559</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4752475247524755</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48514851485148541</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49504950495049532</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50495049504950518</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.51485148514851509</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.524752475247525</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.53465346534653491</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54455445544554482</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55445544554455473</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56435643564356464</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57425742574257455</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58415841584158446</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59405940594059436</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60396039603960427</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61386138613861418</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.62376237623762409</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.633663366336634</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.64356435643564391</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.65346534653465382</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.66336633663366373</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67326732673267364</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.68316831683168355</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69306930693069346</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70297029702970337</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71287128712871328</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.72277227722772319</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.7326732673267331</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.74257425742574301</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.75247524752475292</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.76237623762376283</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.77227722772277274</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78217821782178265</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.79207920792079256</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.80198019801980247</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.81188118811881238</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.82178217821782229</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8316831683168322</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84158415841584211</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.85148514851485202</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.86138613861386193</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.87128712871287184</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.88118811881188175</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.89108910891089166</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.90099009900990157</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.91089108910891148</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.92079207920792139</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.9306930693069313</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.94059405940594121</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.95049504950495112</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.96039603960396103</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97029702970297094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$G$2:$G$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>6.3465189933776855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.880718174547251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6166437923318089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.690236875326327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8614380477678658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.2676999120429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.001523631634099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.158139785917678</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4109044311070207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.969800439211401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.271926313343615</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.007865282568602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2431640979086998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.111033656809589</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3343364413421934</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.903489216719523</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.205739068512869</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.717187872027406</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.784260683720653</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0530358517524039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.722334682351292</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.975289108729598</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.4968668871586868</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4624496780999818</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.137244772202898</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.276657595492825</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.433435874410193</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.825294872321706</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.090309464105285</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.8512022754933568</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.800356118985921</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.431856306472627</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.3109704008196843</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.488348044971428</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.936632137487429</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.360124512474135</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.719993459116115</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8405335445215207</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.009122603010422</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.5530645209963962</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.084195731890084</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.059822620731769</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.375543122244354</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.039309926552349</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.077544580591788</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.030911757214234</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.7590756581561404</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.928088386460107</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.168173931612827</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.3009863749589066</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.4038038537053783</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.8764438345880796</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.2949337109480759</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0974231734134186</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.197787086562355</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.022922260926501</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1509083969758291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.7596291197408549</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.2236495537332974</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.0042271566863112</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.699499545711102</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17.745348335492729</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.0010035675350988</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19.28048349134993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.26826305200558</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.4208279977930651</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.30895431443016</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.812953014184933</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.466147385021248</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4872993478680605</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.221313325485379</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.9506604978353668</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.8331503608439235</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.5747927793181775</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.965113738975903</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.537127060465293</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.4523606158719211</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.7519592530656567</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.3504103339544624</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.6552203244502</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.9396488642928631</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.0242173081577421</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.5545007025841446</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18.5599051182813</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.7957468127260121</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.9505500321341041</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17.527233973588093</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>11.240400153811615</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8909001562855039</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.9935118797982092</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.5795208487180208</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18.302639574107559</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.9983568522009527</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13.880992388961339</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13.999994674531541</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20.630203586993833</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.2566571684166945</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.9187986732709525</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.8035580427339768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B8F4-41F9-8DB9-FB978A3F99AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="848443184"/>
+        <c:axId val="848439440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="848443184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848439440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="848439440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848443184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>455295</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC798832-F82F-43BD-B8DE-59B1CD475FE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,12 +3138,12 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +3166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -475,7 +3193,7 @@
         <v>6.3465189933776855</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9.9009900990099011E-3</v>
       </c>
@@ -502,7 +3220,7 @@
         <v>15.880718174547251</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.9801980198019802E-2</v>
       </c>
@@ -529,7 +3247,7 @@
         <v>7.6166437923318089</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.9702970297029702E-2</v>
       </c>
@@ -556,7 +3274,7 @@
         <v>16.690236875326327</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3.9603960396039604E-2</v>
       </c>
@@ -583,7 +3301,7 @@
         <v>2.8614380477678658</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4.9504950495049507E-2</v>
       </c>
@@ -610,7 +3328,7 @@
         <v>11.2676999120429</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5.940594059405941E-2</v>
       </c>
@@ -637,7 +3355,7 @@
         <v>15.001523631634099</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6.9306930693069313E-2</v>
       </c>
@@ -664,7 +3382,7 @@
         <v>15.158139785917678</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7.9207920792079209E-2</v>
       </c>
@@ -691,7 +3409,7 @@
         <v>5.4109044311070207</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8.9108910891089105E-2</v>
       </c>
@@ -718,7 +3436,7 @@
         <v>19.969800439211401</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9.9009900990099001E-2</v>
       </c>
@@ -745,7 +3463,7 @@
         <v>15.271926313343615</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.1089108910891089</v>
       </c>
@@ -772,7 +3490,7 @@
         <v>19.007865282568602</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.11881188118811879</v>
       </c>
@@ -799,7 +3517,7 @@
         <v>1.2431640979086998</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.12871287128712869</v>
       </c>
@@ -826,7 +3544,7 @@
         <v>16.111033656809589</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.1386138613861386</v>
       </c>
@@ -853,7 +3571,7 @@
         <v>5.3343364413421934</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.14851485148514851</v>
       </c>
@@ -880,7 +3598,7 @@
         <v>13.903489216719523</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.15841584158415842</v>
       </c>
@@ -907,7 +3625,7 @@
         <v>19.205739068512869</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.16831683168316833</v>
       </c>
@@ -934,7 +3652,7 @@
         <v>11.717187872027406</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.17821782178217824</v>
       </c>
@@ -961,7 +3679,7 @@
         <v>16.784260683720653</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.18811881188118815</v>
       </c>
@@ -988,7 +3706,7 @@
         <v>1.0530358517524039</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.19801980198019806</v>
       </c>
@@ -1015,7 +3733,7 @@
         <v>18.722334682351292</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.20792079207920797</v>
       </c>
@@ -1042,7 +3760,7 @@
         <v>15.975289108729598</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.21782178217821788</v>
       </c>
@@ -1069,7 +3787,7 @@
         <v>9.4968668871586868</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.22772277227722779</v>
       </c>
@@ -1096,7 +3814,7 @@
         <v>6.4624496780999818</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.2376237623762377</v>
       </c>
@@ -1123,7 +3841,7 @@
         <v>11.137244772202898</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.24752475247524761</v>
       </c>
@@ -1150,7 +3868,7 @@
         <v>8.276657595492825</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.25742574257425749</v>
       </c>
@@ -1177,7 +3895,7 @@
         <v>16.433435874410193</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.2673267326732674</v>
       </c>
@@ -1204,7 +3922,7 @@
         <v>17.825294872321706</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.27722772277227731</v>
       </c>
@@ -1231,7 +3949,7 @@
         <v>18.090309464105285</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.28712871287128722</v>
       </c>
@@ -1258,7 +3976,7 @@
         <v>9.8512022754933568</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.29702970297029713</v>
       </c>
@@ -1285,7 +4003,7 @@
         <v>16.800356118985921</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.30693069306930704</v>
       </c>
@@ -1312,7 +4030,7 @@
         <v>11.431856306472627</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.31683168316831695</v>
       </c>
@@ -1339,7 +4057,7 @@
         <v>6.3109704008196843</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.32673267326732686</v>
       </c>
@@ -1366,7 +4084,7 @@
         <v>16.488348044971428</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.33663366336633677</v>
       </c>
@@ -1393,7 +4111,7 @@
         <v>17.936632137487429</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.34653465346534668</v>
       </c>
@@ -1420,7 +4138,7 @@
         <v>9.360124512474135</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.35643564356435659</v>
       </c>
@@ -1447,7 +4165,7 @@
         <v>10.719993459116115</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.3663366336633665</v>
       </c>
@@ -1474,7 +4192,7 @@
         <v>1.8405335445215207</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.37623762376237641</v>
       </c>
@@ -1501,7 +4219,7 @@
         <v>19.009122603010422</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.38613861386138632</v>
       </c>
@@ -1528,7 +4246,7 @@
         <v>3.5530645209963962</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.39603960396039622</v>
       </c>
@@ -1555,7 +4273,7 @@
         <v>12.084195731890084</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.40594059405940613</v>
       </c>
@@ -1582,7 +4300,7 @@
         <v>12.059822620731769</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.41584158415841604</v>
       </c>
@@ -1609,7 +4327,7 @@
         <v>10.375543122244354</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.42574257425742595</v>
       </c>
@@ -1636,7 +4354,7 @@
         <v>17.039309926552349</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.43564356435643586</v>
       </c>
@@ -1663,7 +4381,7 @@
         <v>16.077544580591788</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.44554455445544577</v>
       </c>
@@ -1690,7 +4408,7 @@
         <v>17.030911757214234</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.45544554455445568</v>
       </c>
@@ -1717,7 +4435,7 @@
         <v>2.7590756581561404</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.46534653465346559</v>
       </c>
@@ -1744,7 +4462,7 @@
         <v>18.928088386460107</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.4752475247524755</v>
       </c>
@@ -1771,7 +4489,7 @@
         <v>17.168173931612827</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.48514851485148541</v>
       </c>
@@ -1798,7 +4516,7 @@
         <v>9.3009863749589066</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.49504950495049532</v>
       </c>
@@ -1825,7 +4543,7 @@
         <v>9.4038038537053783</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.50495049504950518</v>
       </c>
@@ -1852,7 +4570,7 @@
         <v>5.8764438345880796</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.51485148514851509</v>
       </c>
@@ -1879,7 +4597,7 @@
         <v>3.2949337109480759</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.524752475247525</v>
       </c>
@@ -1906,7 +4624,7 @@
         <v>1.0974231734134186</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.53465346534653491</v>
       </c>
@@ -1933,7 +4651,7 @@
         <v>14.197787086562355</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.54455445544554482</v>
       </c>
@@ -1960,7 +4678,7 @@
         <v>12.022922260926501</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.55445544554455473</v>
       </c>
@@ -1987,7 +4705,7 @@
         <v>1.1509083969758291</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.56435643564356464</v>
       </c>
@@ -2014,7 +4732,7 @@
         <v>3.7596291197408549</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.57425742574257455</v>
       </c>
@@ -2041,7 +4759,7 @@
         <v>9.2236495537332974</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.58415841584158446</v>
       </c>
@@ -2068,7 +4786,7 @@
         <v>7.0042271566863112</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.59405940594059436</v>
       </c>
@@ -2095,7 +4813,7 @@
         <v>12.699499545711102</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.60396039603960427</v>
       </c>
@@ -2122,7 +4840,7 @@
         <v>17.745348335492729</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.61386138613861418</v>
       </c>
@@ -2149,7 +4867,7 @@
         <v>9.0010035675350988</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.62376237623762409</v>
       </c>
@@ -2176,7 +4894,7 @@
         <v>19.28048349134993</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.633663366336634</v>
       </c>
@@ -2203,7 +4921,7 @@
         <v>12.26826305200558</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.64356435643564391</v>
       </c>
@@ -2230,7 +4948,7 @@
         <v>9.4208279977930651</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.65346534653465382</v>
       </c>
@@ -2257,7 +4975,7 @@
         <v>16.30895431443016</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.66336633663366373</v>
       </c>
@@ -2284,7 +5002,7 @@
         <v>12.812953014184933</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.67326732673267364</v>
       </c>
@@ -2311,7 +5029,7 @@
         <v>11.466147385021248</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.68316831683168355</v>
       </c>
@@ -2338,7 +5056,7 @@
         <v>1.4872993478680605</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.69306930693069346</v>
       </c>
@@ -2365,7 +5083,7 @@
         <v>19.221313325485379</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.70297029702970337</v>
       </c>
@@ -2392,7 +5110,7 @@
         <v>8.9506604978353668</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.71287128712871328</v>
       </c>
@@ -2419,7 +5137,7 @@
         <v>2.8331503608439235</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.72277227722772319</v>
       </c>
@@ -2446,7 +5164,7 @@
         <v>4.5747927793181775</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.7326732673267331</v>
       </c>
@@ -2473,7 +5191,7 @@
         <v>1.965113738975903</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.74257425742574301</v>
       </c>
@@ -2500,7 +5218,7 @@
         <v>13.537127060465293</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.75247524752475292</v>
       </c>
@@ -2527,7 +5245,7 @@
         <v>9.4523606158719211</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.76237623762376283</v>
       </c>
@@ -2554,7 +5272,7 @@
         <v>9.7519592530656567</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.77227722772277274</v>
       </c>
@@ -2581,7 +5299,7 @@
         <v>7.3504103339544624</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.78217821782178265</v>
       </c>
@@ -2608,7 +5326,7 @@
         <v>9.6552203244502</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.79207920792079256</v>
       </c>
@@ -2635,7 +5353,7 @@
         <v>8.9396488642928631</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.80198019801980247</v>
       </c>
@@ -2662,7 +5380,7 @@
         <v>6.0242173081577421</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.81188118811881238</v>
       </c>
@@ -2689,7 +5407,7 @@
         <v>7.5545007025841446</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.82178217821782229</v>
       </c>
@@ -2716,7 +5434,7 @@
         <v>18.5599051182813</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.8316831683168322</v>
       </c>
@@ -2743,7 +5461,7 @@
         <v>8.7957468127260121</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.84158415841584211</v>
       </c>
@@ -2770,7 +5488,7 @@
         <v>7.9505500321341041</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.85148514851485202</v>
       </c>
@@ -2797,7 +5515,7 @@
         <v>17.527233973588093</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.86138613861386193</v>
       </c>
@@ -2824,7 +5542,7 @@
         <v>11.240400153811615</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.87128712871287184</v>
       </c>
@@ -2851,7 +5569,7 @@
         <v>3.8909001562855039</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.88118811881188175</v>
       </c>
@@ -2878,7 +5596,7 @@
         <v>9.9935118797982092</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.89108910891089166</v>
       </c>
@@ -2905,7 +5623,7 @@
         <v>3.5795208487180208</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.90099009900990157</v>
       </c>
@@ -2932,7 +5650,7 @@
         <v>18.302639574107559</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.91089108910891148</v>
       </c>
@@ -2959,7 +5677,7 @@
         <v>3.9983568522009527</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.92079207920792139</v>
       </c>
@@ -2986,7 +5704,7 @@
         <v>13.880992388961339</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.9306930693069313</v>
       </c>
@@ -3013,7 +5731,7 @@
         <v>13.999994674531541</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.94059405940594121</v>
       </c>
@@ -3040,7 +5758,7 @@
         <v>20.630203586993833</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.95049504950495112</v>
       </c>
@@ -3067,7 +5785,7 @@
         <v>3.2566571684166945</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.96039603960396103</v>
       </c>
@@ -3094,7 +5812,7 @@
         <v>9.9187986732709525</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.97029702970297094</v>
       </c>
@@ -3121,7 +5839,7 @@
         <v>1.8035580427339768</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.98019801980198085</v>
       </c>
@@ -3148,7 +5866,7 @@
         <v>13.289518469631082</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0.99009900990099076</v>
       </c>
@@ -3177,5 +5895,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>